--- a/mAjustesInventario/bak_MERCADOS.xlsx
+++ b/mAjustesInventario/bak_MERCADOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic. Gilberto Pineda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A2AB78-DB93-44EC-A1C7-0395DBF3139B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51FDD0C7-B147-4ED0-8A70-F47F1880944E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F01CDC5-5879-491E-93C7-6438CF3A1833}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4840EBB-2493-48A7-8E08-BFF644EB164D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,24 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>0125</t>
-  </si>
-  <si>
-    <t>014800000276</t>
-  </si>
-  <si>
-    <t>014800000283</t>
-  </si>
-  <si>
-    <t>014800515312</t>
-  </si>
-  <si>
-    <t>014800515336</t>
-  </si>
-  <si>
-    <t>0201</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>010248765203</t>
+  </si>
+  <si>
+    <t>010900000406</t>
+  </si>
+  <si>
+    <t>012223225023</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>016000490987</t>
   </si>
   <si>
     <t>0281</t>
@@ -57,19 +62,70 @@
     <t>033383000817</t>
   </si>
   <si>
+    <t>036200013694</t>
+  </si>
+  <si>
+    <t>038629000040</t>
+  </si>
+  <si>
+    <t>038629001009</t>
+  </si>
+  <si>
+    <t>038629001160</t>
+  </si>
+  <si>
+    <t>038629001696</t>
+  </si>
+  <si>
+    <t>038629001900</t>
+  </si>
+  <si>
+    <t>038629002068</t>
+  </si>
+  <si>
+    <t>038629002389</t>
+  </si>
+  <si>
+    <t>038629002488</t>
+  </si>
+  <si>
+    <t>038629003485</t>
+  </si>
+  <si>
+    <t>038629003492</t>
+  </si>
+  <si>
+    <t>0399</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>0447</t>
+  </si>
+  <si>
+    <t>0476</t>
+  </si>
+  <si>
+    <t>0485</t>
+  </si>
+  <si>
     <t>0501</t>
   </si>
   <si>
+    <t>0502</t>
+  </si>
+  <si>
     <t>0503</t>
   </si>
   <si>
+    <t>0504</t>
+  </si>
+  <si>
     <t>0510</t>
   </si>
   <si>
-    <t>0511</t>
-  </si>
-  <si>
-    <t>0512</t>
+    <t>0513</t>
   </si>
   <si>
     <t>0515</t>
@@ -78,10 +134,7 @@
     <t>0518</t>
   </si>
   <si>
-    <t>0520</t>
-  </si>
-  <si>
-    <t>0523</t>
+    <t>0522</t>
   </si>
   <si>
     <t>0524</t>
@@ -93,25 +146,19 @@
     <t>0531</t>
   </si>
   <si>
-    <t>0532</t>
-  </si>
-  <si>
     <t>0533</t>
   </si>
   <si>
     <t>0549</t>
   </si>
   <si>
-    <t>0552</t>
-  </si>
-  <si>
     <t>0560</t>
   </si>
   <si>
     <t>0562</t>
   </si>
   <si>
-    <t>0578</t>
+    <t>0663</t>
   </si>
   <si>
     <t>0701</t>
@@ -120,43 +167,112 @@
     <t>0702</t>
   </si>
   <si>
+    <t>0703</t>
+  </si>
+  <si>
     <t>0704</t>
   </si>
   <si>
     <t>0708</t>
   </si>
   <si>
+    <t>0709</t>
+  </si>
+  <si>
     <t>0725</t>
   </si>
   <si>
-    <t>073067701180</t>
-  </si>
-  <si>
-    <t>0744</t>
-  </si>
-  <si>
-    <t>0925</t>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>0917</t>
   </si>
   <si>
     <t>0979</t>
   </si>
   <si>
-    <t>1101</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>102397</t>
+  </si>
+  <si>
+    <t>102424</t>
+  </si>
+  <si>
+    <t>102433</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>1102</t>
   </si>
   <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>197819803</t>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>112502</t>
+  </si>
+  <si>
+    <t>112505</t>
+  </si>
+  <si>
+    <t>112507</t>
+  </si>
+  <si>
+    <t>112509</t>
+  </si>
+  <si>
+    <t>112513</t>
+  </si>
+  <si>
+    <t>112515</t>
+  </si>
+  <si>
+    <t>112516</t>
+  </si>
+  <si>
+    <t>112528</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
   <si>
     <t>2016</t>
@@ -165,100 +281,652 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2022</t>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
   </si>
   <si>
     <t>2083</t>
   </si>
   <si>
-    <t>2127</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>3260</t>
+    <t>213</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>3143</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>3184</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4253</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>7500435109307</t>
-  </si>
-  <si>
-    <t>7501005108096</t>
-  </si>
-  <si>
-    <t>7501005108102</t>
-  </si>
-  <si>
-    <t>7501013110753</t>
-  </si>
-  <si>
-    <t>7501020553093</t>
-  </si>
-  <si>
-    <t>7501032398071</t>
-  </si>
-  <si>
-    <t>7501032398194</t>
-  </si>
-  <si>
-    <t>7501035046016</t>
-  </si>
-  <si>
-    <t>7501059953666</t>
-  </si>
-  <si>
-    <t>7501061600411</t>
-  </si>
-  <si>
-    <t>7501071900112</t>
-  </si>
-  <si>
-    <t>7501090543215</t>
-  </si>
-  <si>
-    <t>7501125103582</t>
-  </si>
-  <si>
-    <t>7501130902309</t>
-  </si>
-  <si>
-    <t>7501147512263</t>
-  </si>
-  <si>
-    <t>7501303995510</t>
-  </si>
-  <si>
-    <t>7501303995534</t>
-  </si>
-  <si>
-    <t>7501495010114</t>
-  </si>
-  <si>
-    <t>7501495010343</t>
-  </si>
-  <si>
-    <t>7501495010428</t>
-  </si>
-  <si>
-    <t>7501943471900</t>
-  </si>
-  <si>
-    <t>7502216796843</t>
-  </si>
-  <si>
-    <t>758104006328</t>
-  </si>
-  <si>
-    <t>7622210699190</t>
-  </si>
-  <si>
-    <t>7622210829313</t>
-  </si>
-  <si>
-    <t>790208008693</t>
+    <t>550</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>608875001193</t>
+  </si>
+  <si>
+    <t>611042000011</t>
+  </si>
+  <si>
+    <t>650240007750</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>706460000665</t>
+  </si>
+  <si>
+    <t>706460000740</t>
+  </si>
+  <si>
+    <t>706460029284</t>
+  </si>
+  <si>
+    <t>706460029321</t>
+  </si>
+  <si>
+    <t>706460235968</t>
+  </si>
+  <si>
+    <t>735257003039</t>
+  </si>
+  <si>
+    <t>735257003114</t>
+  </si>
+  <si>
+    <t>735257006351</t>
+  </si>
+  <si>
+    <t>7500435143592</t>
+  </si>
+  <si>
+    <t>7500435159036</t>
+  </si>
+  <si>
+    <t>7500459000345</t>
+  </si>
+  <si>
+    <t>7500459000536</t>
+  </si>
+  <si>
+    <t>7500459001571</t>
+  </si>
+  <si>
+    <t>7500459001588</t>
+  </si>
+  <si>
+    <t>75005443</t>
+  </si>
+  <si>
+    <t>7501000266203</t>
+  </si>
+  <si>
+    <t>7501003111036</t>
+  </si>
+  <si>
+    <t>7501003127143</t>
+  </si>
+  <si>
+    <t>7501003127334</t>
+  </si>
+  <si>
+    <t>7501003300478</t>
+  </si>
+  <si>
+    <t>7501003300676</t>
+  </si>
+  <si>
+    <t>7501003390295</t>
+  </si>
+  <si>
+    <t>7501006591897</t>
+  </si>
+  <si>
+    <t>7501008042267</t>
+  </si>
+  <si>
+    <t>7501008057018</t>
+  </si>
+  <si>
+    <t>7501011101678</t>
+  </si>
+  <si>
+    <t>7501017003761</t>
+  </si>
+  <si>
+    <t>7501017005369</t>
+  </si>
+  <si>
+    <t>7501017006915</t>
+  </si>
+  <si>
+    <t>7501017058518</t>
+  </si>
+  <si>
+    <t>7501018312039</t>
+  </si>
+  <si>
+    <t>7501020561906</t>
+  </si>
+  <si>
+    <t>7501021110257</t>
+  </si>
+  <si>
+    <t>7501021110325</t>
+  </si>
+  <si>
+    <t>7501021121161</t>
+  </si>
+  <si>
+    <t>7501030475132</t>
+  </si>
+  <si>
+    <t>7501032902742</t>
+  </si>
+  <si>
+    <t>7501032913045</t>
+  </si>
+  <si>
+    <t>7501032913113</t>
+  </si>
+  <si>
+    <t>7501032924003</t>
+  </si>
+  <si>
+    <t>7501035910072</t>
+  </si>
+  <si>
+    <t>7501041201225</t>
+  </si>
+  <si>
+    <t>7501041415592</t>
+  </si>
+  <si>
+    <t>7501041417244</t>
+  </si>
+  <si>
+    <t>7501042301740</t>
+  </si>
+  <si>
+    <t>7501048100163</t>
+  </si>
+  <si>
+    <t>7501052470238</t>
+  </si>
+  <si>
+    <t>7501056285074</t>
+  </si>
+  <si>
+    <t>7501056286088</t>
+  </si>
+  <si>
+    <t>7501058711670</t>
+  </si>
+  <si>
+    <t>7501058766984</t>
+  </si>
+  <si>
+    <t>7501058768551</t>
+  </si>
+  <si>
+    <t>7501071900204</t>
+  </si>
+  <si>
+    <t>7501071900280</t>
+  </si>
+  <si>
+    <t>7501199413280</t>
+  </si>
+  <si>
+    <t>7501199413457</t>
+  </si>
+  <si>
+    <t>7501199415772</t>
+  </si>
+  <si>
+    <t>7501200450112</t>
+  </si>
+  <si>
+    <t>7501200482113</t>
+  </si>
+  <si>
+    <t>7501200482144</t>
+  </si>
+  <si>
+    <t>7501200482304</t>
+  </si>
+  <si>
+    <t>7501200482342</t>
+  </si>
+  <si>
+    <t>7501313010517</t>
+  </si>
+  <si>
+    <t>7501751900456</t>
+  </si>
+  <si>
+    <t>7501943458185</t>
+  </si>
+  <si>
+    <t>7502007275601</t>
+  </si>
+  <si>
+    <t>7502233118734</t>
+  </si>
+  <si>
+    <t>7502233118987</t>
+  </si>
+  <si>
+    <t>7502233119960</t>
+  </si>
+  <si>
+    <t>7502281120949</t>
+  </si>
+  <si>
+    <t>7503007301048</t>
+  </si>
+  <si>
+    <t>7503013543005</t>
+  </si>
+  <si>
+    <t>7503030374088</t>
+  </si>
+  <si>
+    <t>7503031287035</t>
+  </si>
+  <si>
+    <t>7506129450250</t>
+  </si>
+  <si>
+    <t>7506425649730</t>
+  </si>
+  <si>
+    <t>75069247</t>
+  </si>
+  <si>
+    <t>7509546067704</t>
+  </si>
+  <si>
+    <t>7509546079035</t>
+  </si>
+  <si>
+    <t>757528001889</t>
+  </si>
+  <si>
+    <t>758250</t>
+  </si>
+  <si>
+    <t>759684031106</t>
+  </si>
+  <si>
+    <t>7622210566737</t>
+  </si>
+  <si>
+    <t>7622210833662</t>
+  </si>
+  <si>
+    <t>78929371</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>950001</t>
+  </si>
+  <si>
+    <t>950002</t>
+  </si>
+  <si>
+    <t>950003</t>
+  </si>
+  <si>
+    <t>950004</t>
+  </si>
+  <si>
+    <t>950005</t>
+  </si>
+  <si>
+    <t>950006</t>
+  </si>
+  <si>
+    <t>950009</t>
+  </si>
+  <si>
+    <t>950010</t>
+  </si>
+  <si>
+    <t>950011</t>
+  </si>
+  <si>
+    <t>950012</t>
+  </si>
+  <si>
+    <t>950014</t>
+  </si>
+  <si>
+    <t>950015</t>
+  </si>
+  <si>
+    <t>950017</t>
+  </si>
+  <si>
+    <t>950021</t>
+  </si>
+  <si>
+    <t>950022</t>
+  </si>
+  <si>
+    <t>950023</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>953132</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>980304</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>985014</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>O16</t>
   </si>
 </sst>
 </file>
@@ -610,21 +1278,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83256F34-1CAB-4BAB-B1E9-A28F8C77B6FE}">
-  <dimension ref="A1:B76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4410C399-C936-4178-9B22-99989736E6C9}">
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -640,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -648,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -664,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -720,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -736,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +1431,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -776,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -784,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +1471,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,7 +1511,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -848,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -856,7 +1527,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -864,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -872,7 +1543,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -888,7 +1559,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>290</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -896,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -904,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -920,7 +1591,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -928,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -936,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -944,7 +1615,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -960,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -968,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -976,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +1655,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>445</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +1663,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1671,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1008,7 +1679,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,7 +1687,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>350</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1695,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1703,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1711,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1719,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1727,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1735,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1743,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1751,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,7 +1759,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1096,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,7 +1783,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,7 +1791,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1799,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,7 +1807,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,7 +1815,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1160,7 +1831,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,7 +1839,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1184,7 +1855,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1192,7 +1863,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,7 +1871,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1208,7 +1879,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1216,7 +1887,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1224,7 +1895,1775 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3.9050000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4.1899999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1388.165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>323.16500000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>6.8389999999999986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>25.664999999999964</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
